--- a/Things.xlsx
+++ b/Things.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>Apotheke</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>25 Cooper Square</t>
+  </si>
+  <si>
+    <t>Isa</t>
+  </si>
+  <si>
+    <t>348 Wythe Ave Brooklyn</t>
+  </si>
+  <si>
+    <t>"Modern Primitive". Menu changes every night.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -452,11 +461,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -475,6 +502,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1202,6 +1235,20 @@
         <v>79</v>
       </c>
     </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
